--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
@@ -546,10 +546,10 @@
         <v>4.091597</v>
       </c>
       <c r="I2">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232839</v>
       </c>
       <c r="J2">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232838</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N2">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q2">
-        <v>25.07122924858967</v>
+        <v>30.68071872045567</v>
       </c>
       <c r="R2">
-        <v>225.641063237307</v>
+        <v>276.126468484101</v>
       </c>
       <c r="S2">
-        <v>0.0224954067410809</v>
+        <v>0.02401135831146872</v>
       </c>
       <c r="T2">
-        <v>0.0224954067410809</v>
+        <v>0.02401135831146871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>4.091597</v>
       </c>
       <c r="I3">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232839</v>
       </c>
       <c r="J3">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232838</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
         <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q3">
-        <v>112.7144117315506</v>
+        <v>112.7144117315505</v>
       </c>
       <c r="R3">
         <v>1014.429705583955</v>
       </c>
       <c r="S3">
-        <v>0.1011341132236475</v>
+        <v>0.0882126051743444</v>
       </c>
       <c r="T3">
-        <v>0.1011341132236475</v>
+        <v>0.08821260517434439</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>4.091597</v>
       </c>
       <c r="I4">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232839</v>
       </c>
       <c r="J4">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232838</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N4">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O4">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P4">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q4">
-        <v>124.4541014027811</v>
+        <v>108.1900965252683</v>
       </c>
       <c r="R4">
-        <v>1120.08691262503</v>
+        <v>973.7108687274149</v>
       </c>
       <c r="S4">
-        <v>0.1116676651109469</v>
+        <v>0.08467178350970593</v>
       </c>
       <c r="T4">
-        <v>0.1116676651109469</v>
+        <v>0.0846717835097059</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>4.091597</v>
       </c>
       <c r="I5">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232839</v>
       </c>
       <c r="J5">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232838</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N5">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q5">
-        <v>19.84993231520811</v>
+        <v>19.731268273636</v>
       </c>
       <c r="R5">
-        <v>178.649390836873</v>
+        <v>177.581414462724</v>
       </c>
       <c r="S5">
-        <v>0.01781054677399397</v>
+        <v>0.01544209432558405</v>
       </c>
       <c r="T5">
-        <v>0.01781054677399397</v>
+        <v>0.01544209432558404</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>4.091597</v>
       </c>
       <c r="I6">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232839</v>
       </c>
       <c r="J6">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232838</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N6">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O6">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P6">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q6">
-        <v>110.8665337801221</v>
+        <v>98.67193944518777</v>
       </c>
       <c r="R6">
-        <v>997.798804021099</v>
+        <v>888.0474550066901</v>
       </c>
       <c r="S6">
-        <v>0.09947608657832069</v>
+        <v>0.0772226790021808</v>
       </c>
       <c r="T6">
-        <v>0.09947608657832072</v>
+        <v>0.0772226790021808</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.247734666666667</v>
+        <v>1.444951</v>
       </c>
       <c r="H7">
-        <v>3.743204</v>
+        <v>4.334853</v>
       </c>
       <c r="I7">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="J7">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N7">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q7">
-        <v>22.93645381210267</v>
+        <v>32.504766619861</v>
       </c>
       <c r="R7">
-        <v>206.428084308924</v>
+        <v>292.542899578749</v>
       </c>
       <c r="S7">
-        <v>0.020579958508827</v>
+        <v>0.02543889552430141</v>
       </c>
       <c r="T7">
-        <v>0.02057995850882699</v>
+        <v>0.02543889552430141</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.247734666666667</v>
+        <v>1.444951</v>
       </c>
       <c r="H8">
-        <v>3.743204</v>
+        <v>4.334853</v>
       </c>
       <c r="I8">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="J8">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
         <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q8">
-        <v>103.1169582075622</v>
+        <v>119.4155743680883</v>
       </c>
       <c r="R8">
-        <v>928.0526238680601</v>
+        <v>1074.740169312795</v>
       </c>
       <c r="S8">
-        <v>0.09252270376462059</v>
+        <v>0.0934570721842406</v>
       </c>
       <c r="T8">
-        <v>0.09252270376462057</v>
+        <v>0.0934570721842406</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.247734666666667</v>
+        <v>1.444951</v>
       </c>
       <c r="H9">
-        <v>3.743204</v>
+        <v>4.334853</v>
       </c>
       <c r="I9">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="J9">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N9">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O9">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P9">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q9">
-        <v>113.8570319088845</v>
+        <v>114.622276947815</v>
       </c>
       <c r="R9">
-        <v>1024.71328717996</v>
+        <v>1031.600492530335</v>
       </c>
       <c r="S9">
-        <v>0.1021593404027711</v>
+        <v>0.08970573953456296</v>
       </c>
       <c r="T9">
-        <v>0.1021593404027711</v>
+        <v>0.08970573953456296</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.247734666666667</v>
+        <v>1.444951</v>
       </c>
       <c r="H10">
-        <v>3.743204</v>
+        <v>4.334853</v>
       </c>
       <c r="I10">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="J10">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N10">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q10">
-        <v>18.15974203764845</v>
+        <v>20.904343088964</v>
       </c>
       <c r="R10">
-        <v>163.437678338836</v>
+        <v>188.139087800676</v>
       </c>
       <c r="S10">
-        <v>0.01629400694315724</v>
+        <v>0.01636016668150381</v>
       </c>
       <c r="T10">
-        <v>0.01629400694315724</v>
+        <v>0.01636016668150381</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.247734666666667</v>
+        <v>1.444951</v>
       </c>
       <c r="H11">
-        <v>3.743204</v>
+        <v>4.334853</v>
       </c>
       <c r="I11">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="J11">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N11">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O11">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P11">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q11">
-        <v>101.4264241350965</v>
+        <v>104.5382408677567</v>
       </c>
       <c r="R11">
-        <v>912.8378172158681</v>
+        <v>940.8441678098101</v>
       </c>
       <c r="S11">
-        <v>0.09100585546042692</v>
+        <v>0.08181376654168052</v>
       </c>
       <c r="T11">
-        <v>0.09100585546042692</v>
+        <v>0.08181376654168053</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4477083333333334</v>
+        <v>0.680678</v>
       </c>
       <c r="H12">
-        <v>1.343125</v>
+        <v>2.042034</v>
       </c>
       <c r="I12">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="J12">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N12">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q12">
-        <v>8.229988140208334</v>
+        <v>15.312131368658</v>
       </c>
       <c r="R12">
-        <v>74.06989326187501</v>
+        <v>137.809182317922</v>
       </c>
       <c r="S12">
-        <v>0.007384437709557976</v>
+        <v>0.01198358735188282</v>
       </c>
       <c r="T12">
-        <v>0.007384437709557976</v>
+        <v>0.01198358735188282</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4477083333333334</v>
+        <v>0.680678</v>
       </c>
       <c r="H13">
-        <v>1.343125</v>
+        <v>2.042034</v>
       </c>
       <c r="I13">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="J13">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
         <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q13">
-        <v>37.00011126631945</v>
+        <v>56.25350225005666</v>
       </c>
       <c r="R13">
-        <v>333.001001396875</v>
+        <v>506.28152025051</v>
       </c>
       <c r="S13">
-        <v>0.03319871331988745</v>
+        <v>0.04402514201535176</v>
       </c>
       <c r="T13">
-        <v>0.03319871331988745</v>
+        <v>0.04402514201535175</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4477083333333334</v>
+        <v>0.680678</v>
       </c>
       <c r="H14">
-        <v>1.343125</v>
+        <v>2.042034</v>
       </c>
       <c r="I14">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="J14">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N14">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O14">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P14">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q14">
-        <v>40.85383163263889</v>
+        <v>53.99550727206999</v>
       </c>
       <c r="R14">
-        <v>367.6844846937501</v>
+        <v>485.95956544863</v>
       </c>
       <c r="S14">
-        <v>0.03665650177721329</v>
+        <v>0.04225798893866108</v>
       </c>
       <c r="T14">
-        <v>0.03665650177721329</v>
+        <v>0.04225798893866107</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4477083333333334</v>
+        <v>0.680678</v>
       </c>
       <c r="H15">
-        <v>1.343125</v>
+        <v>2.042034</v>
       </c>
       <c r="I15">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="J15">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N15">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q15">
-        <v>6.516023044513889</v>
+        <v>9.847480257191998</v>
       </c>
       <c r="R15">
-        <v>58.64420740062499</v>
+        <v>88.627322314728</v>
       </c>
       <c r="S15">
-        <v>0.00584656568958787</v>
+        <v>0.007706839565101278</v>
       </c>
       <c r="T15">
-        <v>0.00584656568958787</v>
+        <v>0.007706839565101277</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4477083333333334</v>
+        <v>0.680678</v>
       </c>
       <c r="H16">
-        <v>1.343125</v>
+        <v>2.042034</v>
       </c>
       <c r="I16">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="J16">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N16">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O16">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P16">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q16">
-        <v>36.39351900576389</v>
+        <v>49.24518597335334</v>
       </c>
       <c r="R16">
-        <v>327.541671051875</v>
+        <v>443.2066737601801</v>
       </c>
       <c r="S16">
-        <v>0.03265444245498934</v>
+        <v>0.03854029028116387</v>
       </c>
       <c r="T16">
-        <v>0.03265444245498934</v>
+        <v>0.03854029028116387</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.808894</v>
+        <v>1.220628333333333</v>
       </c>
       <c r="H17">
-        <v>2.426682</v>
+        <v>3.661885</v>
       </c>
       <c r="I17">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="J17">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N17">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q17">
-        <v>14.869475350438</v>
+        <v>27.45853603657834</v>
       </c>
       <c r="R17">
-        <v>133.825278153942</v>
+        <v>247.126824329205</v>
       </c>
       <c r="S17">
-        <v>0.01334178283473658</v>
+        <v>0.02148961220530581</v>
       </c>
       <c r="T17">
-        <v>0.01334178283473658</v>
+        <v>0.0214896122053058</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.808894</v>
+        <v>1.220628333333333</v>
       </c>
       <c r="H18">
-        <v>2.426682</v>
+        <v>3.661885</v>
       </c>
       <c r="I18">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="J18">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
         <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q18">
-        <v>66.84970051780333</v>
+        <v>100.8768003309194</v>
       </c>
       <c r="R18">
-        <v>601.64730466023</v>
+        <v>907.8912029782749</v>
       </c>
       <c r="S18">
-        <v>0.05998155051579795</v>
+        <v>0.07894824825095291</v>
       </c>
       <c r="T18">
-        <v>0.05998155051579795</v>
+        <v>0.0789482482509529</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.808894</v>
+        <v>1.220628333333333</v>
       </c>
       <c r="H19">
-        <v>2.426682</v>
+        <v>3.661885</v>
       </c>
       <c r="I19">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="J19">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N19">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O19">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P19">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q19">
-        <v>73.81238369768667</v>
+        <v>96.82764251084166</v>
       </c>
       <c r="R19">
-        <v>664.31145327918</v>
+        <v>871.4487825975749</v>
       </c>
       <c r="S19">
-        <v>0.06622888639980008</v>
+        <v>0.07577929448023339</v>
       </c>
       <c r="T19">
-        <v>0.0662288863998001</v>
+        <v>0.07577929448023338</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.808894</v>
+        <v>1.220628333333333</v>
       </c>
       <c r="H20">
-        <v>2.426682</v>
+        <v>3.661885</v>
       </c>
       <c r="I20">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="J20">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N20">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q20">
-        <v>11.77278051834866</v>
+        <v>17.65903028138</v>
       </c>
       <c r="R20">
-        <v>105.955024665138</v>
+        <v>158.93127253242</v>
       </c>
       <c r="S20">
-        <v>0.010563242974958</v>
+        <v>0.0138203184672003</v>
       </c>
       <c r="T20">
-        <v>0.010563242974958</v>
+        <v>0.0138203184672003</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.808894</v>
+        <v>1.220628333333333</v>
       </c>
       <c r="H21">
-        <v>2.426682</v>
+        <v>3.661885</v>
       </c>
       <c r="I21">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="J21">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N21">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O21">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P21">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q21">
-        <v>65.75374405803267</v>
+        <v>88.30911132627223</v>
       </c>
       <c r="R21">
-        <v>591.783696522294</v>
+        <v>794.7820019364501</v>
       </c>
       <c r="S21">
-        <v>0.05899819281567868</v>
+        <v>0.06911251765457373</v>
       </c>
       <c r="T21">
-        <v>0.05899819281567868</v>
+        <v>0.06911251765457371</v>
       </c>
     </row>
   </sheetData>
